--- a/data/allowip.xlsx
+++ b/data/allowip.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" tabRatio="884"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" tabRatio="884" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="add_allowip" sheetId="1" r:id="rId1"/>
@@ -12,16 +12,16 @@
     <sheet name="list_allowip_by_verbose_mode" sheetId="19" r:id="rId3"/>
     <sheet name="mod_allowip" sheetId="16" r:id="rId4"/>
     <sheet name="del_allowip" sheetId="17" r:id="rId5"/>
-    <sheet name="invalid_setting_parameter" sheetId="8" r:id="rId6"/>
-    <sheet name="invalid_option" sheetId="9" r:id="rId7"/>
-    <sheet name="missing_parameter" sheetId="10" r:id="rId8"/>
+    <sheet name="invalid_setting_for_allowip" sheetId="8" r:id="rId6"/>
+    <sheet name="invalid_option_for_allowip" sheetId="9" r:id="rId7"/>
+    <sheet name="missing_parameter_for_allowip" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="132">
   <si>
     <t>send command</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,213 +49,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>acl test</t>
-  </si>
-  <si>
-    <t>acl -a test</t>
-  </si>
-  <si>
-    <t>acl -a refresh test</t>
-  </si>
-  <si>
-    <t>acl -a refresh -t test</t>
-  </si>
-  <si>
-    <t>acl -d test</t>
-  </si>
-  <si>
-    <t>acl -a mod -d 0 -t nasshare -s ""</t>
-  </si>
-  <si>
-    <t>acl -a mod -d 0 -t clone -s ""</t>
-  </si>
-  <si>
-    <t>acl -a clear -d test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>not existed</t>
-  </si>
-  <si>
-    <t>acl -d 0 -t test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id=[100] is not existed</t>
-  </si>
-  <si>
-    <t>id=[100] is not existed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acl -d 100 -t clone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acl -d 100 -t nasshare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acl -test</t>
-  </si>
-  <si>
-    <t>acl -a refresh -test</t>
-  </si>
-  <si>
-    <t>acl -d 0 -test</t>
-  </si>
-  <si>
-    <t>acl -a clear -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acl -a clear -t nasshare -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acl -a cancel -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acl -a cancel -t clone -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acl -a cancel -d test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acl -d</t>
-  </si>
-  <si>
-    <t>acl -d 0 -t</t>
-  </si>
-  <si>
-    <t>acl -a</t>
-  </si>
-  <si>
-    <t>acl -a refresh</t>
-  </si>
-  <si>
-    <t>acl -a refresh -d</t>
-  </si>
-  <si>
-    <t>acl -a refresh -d 0 -t</t>
-  </si>
-  <si>
-    <t>acl -a cancel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acl -a clear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acl -a cancel -d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acl -a clear -d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Invalid option for the command or the action</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>acl -a set -d test -t clone -s "role=group,name=users,acl=ro"</t>
-  </si>
-  <si>
-    <t>acl -a set -d 100 -t nasshare -s "role=user,name=admin,acl=rw"</t>
-  </si>
-  <si>
-    <t>acl -a set -d 100 -t clone -s "role=user,name=admin,acl=rw"</t>
-  </si>
-  <si>
-    <t>acl -a set -d 100 -t nasshare -s "role=group,name=users,acl=rw"</t>
-  </si>
-  <si>
-    <t>acl -a set -d 100 -t clone -s "role=group,name=users,acl=rw"</t>
-  </si>
-  <si>
-    <t>acl -a set -d 0 -t test -s "role=user,name=admin,acl=rw"</t>
-  </si>
-  <si>
-    <t>acl -a set -d 0 -t nasshare -s "role=test,name=admin,acl=rw"</t>
-  </si>
-  <si>
-    <t>acl -a set -d 0 -t clone -s "role=test,name=admin,acl=rw"</t>
-  </si>
-  <si>
-    <t>acl -a set -d 0 -t nasshare -s "role=user,name=test,acl=rw"</t>
-  </si>
-  <si>
-    <t>acl -a set -d 0 -t clone -s "role=user,name=test,acl=rw"</t>
-  </si>
-  <si>
-    <t>acl -a set -d 0 -t nasshare -s "role=group,name=test,acl=rw"</t>
-  </si>
-  <si>
-    <t>acl -a set -d 0 -t clone -s "role=group,name=test,acl=rw"</t>
-  </si>
-  <si>
-    <t>acl -a set -d 0 -t clone -s "role=user,name=test_acl_0,acl=test"</t>
-  </si>
-  <si>
-    <t>acl -a set -d 0 -t nasshare -s "role=user,name=test_acl_0,acl=test"</t>
-  </si>
-  <si>
-    <t>acl -a set -d 0 -t clone -s "role=group,name=users,acl=test"</t>
-  </si>
-  <si>
-    <t>acl -a set -d 0 -t nasshare -s "role=group,name=users,acl=test"</t>
-  </si>
-  <si>
-    <t>NAS user [test] doesn't exist</t>
-  </si>
-  <si>
-    <t>acl -a set -test</t>
-  </si>
-  <si>
-    <t>acl -a set -d 0 -test</t>
-  </si>
-  <si>
-    <t>acl -a set -d 0 -nasshare -s "test=user,user=adimin,acl=rw"</t>
-  </si>
-  <si>
-    <t>acl -a set -d 0 -clone -s "test=user,user=adimin,acl=rw"</t>
-  </si>
-  <si>
-    <t>acl -a set -d 0 -nasshare -s "role=user,test=adimin,acl=rw"</t>
-  </si>
-  <si>
-    <t>acl -a set -d 0 -clone -s "role=group,test=adimin,acl=rw"</t>
-  </si>
-  <si>
-    <t>NAS group [test] doesn't exist</t>
-  </si>
-  <si>
-    <t>acl -a set -d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acl -a set -d 0 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">acl -a set -d 0 -t </t>
-  </si>
-  <si>
-    <t xml:space="preserve">acl -a set -d 0 -t nasshare </t>
-  </si>
-  <si>
-    <t>acl -a set -d 0 -t nasshare -s</t>
-  </si>
-  <si>
-    <t>acl -a set -d 0 -t clone</t>
-  </si>
-  <si>
-    <t>acl -a set -d 0 -t clone -s</t>
-  </si>
-  <si>
     <t>allowip -t nasshare -d 0</t>
   </si>
   <si>
@@ -525,6 +322,197 @@
   </si>
   <si>
     <t>allowip -t clone -d 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a add -t test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a add -t nasshare -d test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a add -t nasshare -d 0 -s test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a add -t nasshare -d 0 -s ""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a add -t nasshare -d 0 -s "ip=255.255.255.255,permission=test,squash=root"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a mod test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a mod -t nasshare -d test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a mod -t nasshare -d 0 -s ""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a del test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a del -t test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a del -t nasshare -d 100 -i 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a del -t nasshare -d 0 -i 100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a add -t nasshare -d 0 -s "ip=test,permission=ro,squash=root"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a add -t nasshare -d 0 -s "ip=255.255.255.255,permission=ro,squash=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAS Share id=[100] is not existed</t>
+  </si>
+  <si>
+    <t>allowip -a mod -t nasshare -d 0 -s "ip=256.255.255.255,permission=ro,squash=root" -i 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a add -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a add -t nasshare -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a add -t nasshare -d 0 -s "test=255.255.255.255,permission=ro,squash=root"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a add -t nasshare -d 0 -s "ip=255.255.255.255,test=ro,squash=root"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a add -t nasshare -d 0 -s "ip=255.255.255.255,permission=ro,test=root"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a mod -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a mod -t nasshare -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a mod -t nasshare -d 0 -s "test=255.255.255.255,permission=ro,squash=root" -i 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a add -t nasshare -d 0 -s "ip=256.255.255.255,permission=ro,squash=root"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a add -t nasshare -d 0 -s "ip=255.256.255.255,permission=ro,squash=root"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a add -t nasshare -d 0 -s "ip=255.255.256.255,permission=ro,squash=root"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a add -t nasshare -d 0 -s "ip=255.255.255.256,permission=ro,squash=root"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a del -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a add -t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">allowip -a add -t nasshare -d </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">allowip -a add -t nasshare -d 0 -s </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a add -t nasshare -d 0 -s "ip=0.0.0.0,permission=ro"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a add -t nasshare -d 0 -s "ip=255.255.255.255,squash=root"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a add -t nasshare -d 0 -s "permission=ro,squash=root"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a mod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a mod -t nasshare -d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a mod -t nasshare -d 0 -s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a del</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a del -t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a del -t nasshare -d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a del -t nasshare -d 0 -i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -874,8 +862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -904,122 +892,122 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>128</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>118</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>130</v>
+        <v>67</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>132</v>
+        <v>69</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>134</v>
+        <v>71</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>124</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>136</v>
+        <v>73</v>
       </c>
       <c r="E7" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1031,10 +1019,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1061,62 +1049,82 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>88</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1158,62 +1166,62 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1257,182 +1265,182 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="F2" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>117</v>
+        <v>54</v>
       </c>
       <c r="F3" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="F4" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="F5" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>117</v>
+        <v>54</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>108</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>109</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="F8" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>117</v>
+        <v>54</v>
       </c>
       <c r="F9" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="F10" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1474,44 +1482,44 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
-        <v>143</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>138</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>141</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="D3" t="s">
-        <v>143</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>146</v>
+        <v>83</v>
       </c>
       <c r="D4" t="s">
-        <v>143</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1522,16 +1530,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="91.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="88.75" customWidth="1"/>
+    <col min="2" max="2" width="37.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
@@ -1544,7 +1552,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1552,7 +1560,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -1560,23 +1568,23 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -1584,7 +1592,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -1592,7 +1600,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -1600,39 +1608,39 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -1640,7 +1648,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
@@ -1648,7 +1656,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
@@ -1656,39 +1664,39 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
@@ -1696,73 +1704,17 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="B22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1774,15 +1726,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="61.5" customWidth="1"/>
+    <col min="1" max="1" width="90.625" customWidth="1"/>
     <col min="2" max="2" width="45.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1796,15 +1748,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -1812,7 +1764,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -1820,7 +1772,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -1828,7 +1780,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -1836,7 +1788,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -1844,7 +1796,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -1852,7 +1804,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -1860,7 +1812,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -1868,33 +1820,9 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1906,15 +1834,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="40.25" customWidth="1"/>
+    <col min="1" max="1" width="96" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1928,7 +1856,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -1936,7 +1864,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -1944,7 +1872,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -1952,7 +1880,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -1960,7 +1888,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -1968,7 +1896,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -1976,7 +1904,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -1984,7 +1912,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -1992,7 +1920,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -2000,7 +1928,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -2008,7 +1936,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>126</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -2016,7 +1944,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -2024,7 +1952,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -2032,7 +1960,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>129</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -2040,25 +1968,9 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" t="s">
         <v>3</v>
       </c>
     </row>

--- a/data/allowip.xlsx
+++ b/data/allowip.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" tabRatio="884" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" tabRatio="884" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="add_allowip" sheetId="1" r:id="rId1"/>
@@ -111,14 +111,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>allowip -v -t snapshot -d 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -v -t clone -d 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>list allowip settings on nasshare 1 by verbose moed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -131,10 +123,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>allowip -v -t nasshare -d 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>allowip -a mod -t nasshare -d 0 -i 0 -s "ip=10.84.2.1, permission=rw, squash=root"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -513,6 +501,18 @@
   </si>
   <si>
     <t>allowip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -v -t nasshare -d 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -v -t snapshot -d 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -v -t clone -d 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -892,16 +892,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -912,16 +912,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
@@ -932,16 +932,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -952,16 +952,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
@@ -972,16 +972,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -992,16 +992,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
@@ -1021,7 +1021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -1138,8 +1138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1166,10 +1166,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
@@ -1186,10 +1186,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
@@ -1206,10 +1206,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
         <v>22</v>
@@ -1265,19 +1265,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" t="s">
         <v>50</v>
-      </c>
-      <c r="E2" t="s">
-        <v>53</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -1285,19 +1285,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
         <v>51</v>
-      </c>
-      <c r="E3" t="s">
-        <v>54</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
@@ -1305,19 +1305,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -1325,19 +1325,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
         <v>50</v>
-      </c>
-      <c r="E5" t="s">
-        <v>53</v>
       </c>
       <c r="F5" t="s">
         <v>15</v>
@@ -1345,19 +1345,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" t="s">
         <v>51</v>
-      </c>
-      <c r="E6" t="s">
-        <v>54</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
@@ -1365,19 +1365,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
@@ -1385,19 +1385,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" t="s">
         <v>50</v>
-      </c>
-      <c r="E8" t="s">
-        <v>53</v>
       </c>
       <c r="F8" t="s">
         <v>15</v>
@@ -1405,19 +1405,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
       <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s">
         <v>51</v>
-      </c>
-      <c r="E9" t="s">
-        <v>54</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
@@ -1425,19 +1425,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s">
         <v>18</v>
@@ -1482,44 +1482,44 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" t="s">
         <v>74</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" t="s">
         <v>77</v>
-      </c>
-      <c r="C2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
         <v>75</v>
       </c>
-      <c r="B3" t="s">
-        <v>78</v>
-      </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
         <v>76</v>
       </c>
-      <c r="B4" t="s">
-        <v>79</v>
-      </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1552,7 +1552,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1560,7 +1560,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -1568,7 +1568,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -1576,7 +1576,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -1584,7 +1584,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -1592,7 +1592,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -1600,7 +1600,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -1608,7 +1608,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -1616,7 +1616,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -1624,7 +1624,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -1632,7 +1632,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -1640,7 +1640,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -1648,7 +1648,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
@@ -1664,7 +1664,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
@@ -1672,7 +1672,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
@@ -1680,7 +1680,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
@@ -1688,7 +1688,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B19" t="s">
         <v>4</v>
@@ -1696,7 +1696,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
@@ -1704,15 +1704,15 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
@@ -1748,7 +1748,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -1756,7 +1756,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -1764,7 +1764,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -1772,7 +1772,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -1780,7 +1780,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -1788,7 +1788,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -1796,7 +1796,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -1812,7 +1812,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -1820,7 +1820,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -1864,7 +1864,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -1872,7 +1872,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -1880,7 +1880,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -1888,7 +1888,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -1896,7 +1896,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -1904,7 +1904,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -1912,7 +1912,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -1920,7 +1920,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -1936,7 +1936,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -1944,7 +1944,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -1952,7 +1952,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -1968,7 +1968,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>

--- a/data/allowip.xlsx
+++ b/data/allowip.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" tabRatio="884" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" tabRatio="884" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="add_allowip" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="134">
   <si>
     <t>send command</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,15 +74,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RO</t>
-  </si>
-  <si>
     <t>root_squash</t>
   </si>
   <si>
-    <t>RW</t>
-  </si>
-  <si>
     <t>all_squash</t>
   </si>
   <si>
@@ -195,14 +189,6 @@
     <t>10.84.2.3</t>
   </si>
   <si>
-    <t>RW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>allowip -t nasshare -d 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -513,6 +499,30 @@
   </si>
   <si>
     <t>allowip -v -t clone -d 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkpoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkpoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ro</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -863,7 +873,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -892,122 +902,122 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" t="s">
         <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F4" t="s">
         <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5" t="s">
         <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1052,19 +1062,19 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -1072,19 +1082,19 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -1092,39 +1102,39 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1138,8 +1148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1166,62 +1176,62 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1235,8 +1245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1265,182 +1275,182 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>132</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>133</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>132</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>132</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>133</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>132</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>132</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>133</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>132</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1482,44 +1492,44 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s">
         <v>74</v>
       </c>
-      <c r="C2" t="s">
-        <v>78</v>
-      </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" t="s">
         <v>75</v>
       </c>
-      <c r="C3" t="s">
-        <v>79</v>
-      </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" t="s">
         <v>73</v>
-      </c>
-      <c r="B4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1530,191 +1540,257 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="88.75" customWidth="1"/>
-    <col min="2" max="2" width="37.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="37.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>81</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>82</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
         <v>83</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
         <v>84</v>
       </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
         <v>85</v>
       </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>86</v>
       </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>109</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>110</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
         <v>87</v>
       </c>
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
         <v>88</v>
       </c>
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
         <v>89</v>
       </c>
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
+      <c r="B21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
         <v>90</v>
       </c>
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>98</v>
-      </c>
-      <c r="B18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>91</v>
-      </c>
-      <c r="B19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>92</v>
-      </c>
-      <c r="B20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>93</v>
-      </c>
-      <c r="B21" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>94</v>
-      </c>
       <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1726,104 +1802,138 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="90.625" customWidth="1"/>
     <col min="2" max="2" width="45.5" customWidth="1"/>
+    <col min="3" max="3" width="49.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1834,143 +1944,192 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="96" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.875" customWidth="1"/>
+    <col min="3" max="3" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>113</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>114</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>115</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>117</v>
       </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
         <v>120</v>
       </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>119</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
         <v>121</v>
       </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
         <v>122</v>
       </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
         <v>123</v>
       </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>124</v>
-      </c>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>125</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>126</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>127</v>
-      </c>
       <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
         <v>3</v>
       </c>
     </row>

--- a/data/allowip.xlsx
+++ b/data/allowip.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="135">
   <si>
     <t>send command</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,18 +132,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>allowip -a mod -t snapshot -d 0 -i 0 -s "ip=10.84.2.1, permission=rw, squash=root"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>allowip -a mod -t snapshot -d 0 -i 0 -s "ip=10.84.2.2, permission=ro, squash=all"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>allowip -a mod -t snapshot -d 0 -i 0 -s "ip=10.84.2.3, permission=rw, squash=noroot"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>allowip -a mod -t clone -d 0 -i 0 -s "ip=10.84.2.2, permission=ro, squash=all"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -246,10 +238,6 @@
     <t>128.0.0.0</t>
   </si>
   <si>
-    <t>allowip -a add -t snapshot -d 0 -s "ip=191.255.255.254, permission=rw, squash=noroot"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>191.255.255.254</t>
   </si>
   <si>
@@ -523,6 +511,22 @@
   </si>
   <si>
     <t>ro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a add -t snapshot -d 0 -s "ip=191.255.255.254, permission=ro, squash=noroot"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a mod -t snapshot -d 0 -i 0 -s "ip=10.84.2.1, permission=ro, squash=root"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a mod -t snapshot -d 0 -i 0 -s "ip=10.84.2.3, permission=ro, squash=noroot"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -873,7 +877,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -902,19 +906,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
@@ -922,19 +926,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
@@ -942,19 +946,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
@@ -962,19 +966,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
@@ -982,19 +986,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
@@ -1002,19 +1006,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F7" t="s">
         <v>14</v>
@@ -1119,7 +1123,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
@@ -1176,7 +1180,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
@@ -1196,7 +1200,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -1216,7 +1220,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -1246,7 +1250,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1278,16 +1282,16 @@
         <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
@@ -1298,16 +1302,16 @@
         <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
@@ -1318,16 +1322,16 @@
         <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
@@ -1335,19 +1339,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>133</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
@@ -1355,19 +1359,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
@@ -1375,19 +1379,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
@@ -1398,16 +1402,16 @@
         <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
@@ -1415,19 +1419,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F9" t="s">
         <v>15</v>
@@ -1435,19 +1439,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F10" t="s">
         <v>16</v>
@@ -1492,44 +1496,44 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
         <v>67</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" t="s">
         <v>70</v>
-      </c>
-      <c r="C2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" t="s">
         <v>68</v>
       </c>
-      <c r="B3" t="s">
-        <v>71</v>
-      </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" t="s">
         <v>69</v>
       </c>
-      <c r="B4" t="s">
-        <v>72</v>
-      </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1560,12 +1564,12 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1576,7 +1580,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -1587,7 +1591,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -1598,7 +1602,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -1609,7 +1613,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -1620,7 +1624,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -1631,7 +1635,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -1642,7 +1646,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -1653,7 +1657,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -1664,7 +1668,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -1675,7 +1679,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -1686,7 +1690,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -1697,7 +1701,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
@@ -1708,7 +1712,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
@@ -1719,7 +1723,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
@@ -1730,7 +1734,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
@@ -1741,7 +1745,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
@@ -1752,7 +1756,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B19" t="s">
         <v>4</v>
@@ -1763,7 +1767,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
@@ -1774,18 +1778,18 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
@@ -1823,12 +1827,12 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -1839,7 +1843,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -1850,7 +1854,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -1861,7 +1865,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -1872,7 +1876,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -1883,7 +1887,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -1894,7 +1898,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -1905,7 +1909,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -1916,7 +1920,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -1927,7 +1931,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
@@ -1965,12 +1969,12 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -1981,7 +1985,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -1992,7 +1996,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -2003,7 +2007,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -2014,7 +2018,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -2025,7 +2029,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -2036,7 +2040,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -2047,7 +2051,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -2058,7 +2062,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -2069,7 +2073,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -2080,7 +2084,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -2091,7 +2095,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -2102,7 +2106,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -2113,7 +2117,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -2124,7 +2128,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>

--- a/data/allowip.xlsx
+++ b/data/allowip.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" tabRatio="884" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" tabRatio="884" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="add_allowip" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="134">
   <si>
     <t>send command</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -247,286 +247,282 @@
     <t>223.255.255.254</t>
   </si>
   <si>
+    <t>allowip -a del -t snapshot -d 0 -i 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a del -t clone -d 0 -i 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index 0 of allowip should be deleted on nasshare 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index 0 of allowip should be deleted on snapshot 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index 0 of allowip should be deleted on clone 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\r\n0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -t nasshare -d 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -t snapshot -d 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -t clone -d 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a add -t test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a add -t nasshare -d test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a add -t nasshare -d 0 -s test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a add -t nasshare -d 0 -s ""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a add -t nasshare -d 0 -s "ip=255.255.255.255,permission=test,squash=root"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a mod test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a mod -t nasshare -d test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a mod -t nasshare -d 0 -s ""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a del test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a del -t test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a del -t nasshare -d 100 -i 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a del -t nasshare -d 0 -i 100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a add -t nasshare -d 0 -s "ip=test,permission=ro,squash=root"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a add -t nasshare -d 0 -s "ip=255.255.255.255,permission=ro,squash=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAS Share id=[100] is not existed</t>
+  </si>
+  <si>
+    <t>allowip -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a add -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a add -t nasshare -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a add -t nasshare -d 0 -s "test=255.255.255.255,permission=ro,squash=root"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a add -t nasshare -d 0 -s "ip=255.255.255.255,test=ro,squash=root"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a add -t nasshare -d 0 -s "ip=255.255.255.255,permission=ro,test=root"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a mod -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a mod -t nasshare -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a mod -t nasshare -d 0 -s "test=255.255.255.255,permission=ro,squash=root" -i 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a add -t nasshare -d 0 -s "ip=256.255.255.255,permission=ro,squash=root"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a add -t nasshare -d 0 -s "ip=255.256.255.255,permission=ro,squash=root"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a add -t nasshare -d 0 -s "ip=255.255.256.255,permission=ro,squash=root"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a add -t nasshare -d 0 -s "ip=255.255.255.256,permission=ro,squash=root"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a del -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a add -t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">allowip -a add -t nasshare -d </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">allowip -a add -t nasshare -d 0 -s </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a add -t nasshare -d 0 -s "ip=0.0.0.0,permission=ro"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a add -t nasshare -d 0 -s "ip=255.255.255.255,squash=root"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a add -t nasshare -d 0 -s "permission=ro,squash=root"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a mod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a mod -t nasshare -d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a mod -t nasshare -d 0 -s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a del</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a del -t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a del -t nasshare -d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a del -t nasshare -d 0 -i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -v -t nasshare -d 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -v -t snapshot -d 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -v -t clone -d 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkpoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkpoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a add -t snapshot -d 0 -s "ip=191.255.255.254, permission=ro, squash=noroot"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a mod -t snapshot -d 0 -i 0 -s "ip=10.84.2.1, permission=ro, squash=root"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a mod -t snapshot -d 0 -i 0 -s "ip=10.84.2.3, permission=ro, squash=noroot"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a mod -t nasshare -d 0 -s "ip=256.255.255.255,permission=ro,squash=root" -i 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>allowip -a del -t nasshare -d 0 -i 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>allowip -a del -t snapshot -d 0 -i 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a del -t clone -d 0 -i 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>index 0 of allowip should be deleted on nasshare 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>index 0 of allowip should be deleted on snapshot 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>index 0 of allowip should be deleted on clone 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\r\n0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -t nasshare -d 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -t snapshot -d 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -t clone -d 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a add -t test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a add -t nasshare -d test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a add -t nasshare -d 0 -s test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a add -t nasshare -d 0 -s ""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a add -t nasshare -d 0 -s "ip=255.255.255.255,permission=test,squash=root"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a mod test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a mod -t nasshare -d test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a mod -t nasshare -d 0 -s ""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a del test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a del -t test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a del -t nasshare -d 100 -i 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a del -t nasshare -d 0 -i 100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a add -t nasshare -d 0 -s "ip=test,permission=ro,squash=root"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a add -t nasshare -d 0 -s "ip=255.255.255.255,permission=ro,squash=test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NAS Share id=[100] is not existed</t>
-  </si>
-  <si>
-    <t>allowip -a mod -t nasshare -d 0 -s "ip=256.255.255.255,permission=ro,squash=root" -i 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a add -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a add -t nasshare -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a add -t nasshare -d 0 -s "test=255.255.255.255,permission=ro,squash=root"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a add -t nasshare -d 0 -s "ip=255.255.255.255,test=ro,squash=root"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a add -t nasshare -d 0 -s "ip=255.255.255.255,permission=ro,test=root"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a mod -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a mod -t nasshare -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a mod -t nasshare -d 0 -s "test=255.255.255.255,permission=ro,squash=root" -i 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a add -t nasshare -d 0 -s "ip=256.255.255.255,permission=ro,squash=root"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a add -t nasshare -d 0 -s "ip=255.256.255.255,permission=ro,squash=root"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a add -t nasshare -d 0 -s "ip=255.255.256.255,permission=ro,squash=root"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a add -t nasshare -d 0 -s "ip=255.255.255.256,permission=ro,squash=root"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a del -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -t</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a add -t</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">allowip -a add -t nasshare -d </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">allowip -a add -t nasshare -d 0 -s </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a add -t nasshare -d 0 -s "ip=0.0.0.0,permission=ro"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a add -t nasshare -d 0 -s "ip=255.255.255.255,squash=root"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a add -t nasshare -d 0 -s "permission=ro,squash=root"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a mod</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a mod -t nasshare -d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a mod -t nasshare -d 0 -s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a del</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a del -t</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a del -t nasshare -d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a del -t nasshare -d 0 -i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -v -t nasshare -d 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -v -t snapshot -d 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -v -t clone -d 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>checkpoint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>checkpoint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ro</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ro</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a add -t snapshot -d 0 -s "ip=191.255.255.254, permission=ro, squash=noroot"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ro</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a mod -t snapshot -d 0 -i 0 -s "ip=10.84.2.1, permission=ro, squash=root"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a mod -t snapshot -d 0 -i 0 -s "ip=10.84.2.3, permission=ro, squash=noroot"</t>
+    <t>allowip -a mod -t nasshare -d 0 -i 0 -s "ip=10.1.1.1,permission=ro,squash=root"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -877,7 +873,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -918,7 +914,7 @@
         <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
@@ -958,7 +954,7 @@
         <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
@@ -966,7 +962,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B5" t="s">
         <v>50</v>
@@ -978,7 +974,7 @@
         <v>61</v>
       </c>
       <c r="E5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
@@ -998,7 +994,7 @@
         <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
@@ -1123,7 +1119,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
@@ -1180,7 +1176,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
@@ -1200,7 +1196,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -1220,7 +1216,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -1249,8 +1245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1291,7 +1287,7 @@
         <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
@@ -1311,7 +1307,7 @@
         <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
@@ -1331,7 +1327,7 @@
         <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
@@ -1339,7 +1335,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B5" t="s">
         <v>36</v>
@@ -1351,7 +1347,7 @@
         <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
@@ -1371,7 +1367,7 @@
         <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
@@ -1379,7 +1375,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B7" t="s">
         <v>38</v>
@@ -1391,7 +1387,7 @@
         <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
@@ -1411,7 +1407,7 @@
         <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
@@ -1431,7 +1427,7 @@
         <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F9" t="s">
         <v>15</v>
@@ -1451,7 +1447,7 @@
         <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F10" t="s">
         <v>16</v>
@@ -1469,7 +1465,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1496,44 +1492,44 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" t="s">
         <v>69</v>
-      </c>
-      <c r="C4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1544,10 +1540,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1564,12 +1560,12 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1580,7 +1576,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -1591,7 +1587,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -1602,7 +1598,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -1613,7 +1609,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -1624,7 +1620,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -1635,7 +1631,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -1646,7 +1642,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -1657,7 +1653,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -1668,7 +1664,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -1679,7 +1675,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -1690,7 +1686,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -1701,7 +1697,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
@@ -1712,7 +1708,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
@@ -1723,7 +1719,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
@@ -1734,7 +1730,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
@@ -1745,7 +1741,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
@@ -1756,7 +1752,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>84</v>
+        <v>133</v>
       </c>
       <c r="B19" t="s">
         <v>4</v>
@@ -1767,7 +1763,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
@@ -1778,23 +1774,34 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B21" t="s">
-        <v>90</v>
+        <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>90</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B22" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="C22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1827,12 +1834,12 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -1843,7 +1850,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -1854,7 +1861,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -1865,7 +1872,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -1876,7 +1883,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -1887,7 +1894,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -1898,7 +1905,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -1909,7 +1916,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -1920,7 +1927,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -1931,7 +1938,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
@@ -1969,12 +1976,12 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -1985,7 +1992,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -1996,7 +2003,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -2007,7 +2014,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -2018,7 +2025,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -2029,7 +2036,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -2040,7 +2047,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -2051,7 +2058,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -2062,7 +2069,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -2073,7 +2080,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -2084,7 +2091,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -2095,7 +2102,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -2106,7 +2113,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -2117,7 +2124,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -2128,7 +2135,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>

--- a/data/allowip.xlsx
+++ b/data/allowip.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="135">
   <si>
     <t>send command</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -502,18 +502,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>allowip -a mod -t nasshare -d 0 -s "ip=256.255.255.255,permission=ro,squash=root" -i 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -523,6 +511,22 @@
   </si>
   <si>
     <t>allowip -a mod -t nasshare -d 0 -i 0 -s "ip=10.1.1.1,permission=ro,squash=root"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting parameters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a mod -t snapshot -d 2 -i 0 -s "ip=10.84.2.1, permission=ro, squash=root"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -873,7 +877,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -914,7 +918,7 @@
         <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
@@ -934,7 +938,7 @@
         <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
@@ -954,7 +958,7 @@
         <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
@@ -974,7 +978,7 @@
         <v>61</v>
       </c>
       <c r="E5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
@@ -994,7 +998,7 @@
         <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
@@ -1014,7 +1018,7 @@
         <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F7" t="s">
         <v>14</v>
@@ -1246,7 +1250,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1287,7 +1291,7 @@
         <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
@@ -1307,7 +1311,7 @@
         <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
@@ -1327,7 +1331,7 @@
         <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
@@ -1347,7 +1351,7 @@
         <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
@@ -1367,7 +1371,7 @@
         <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
@@ -1387,7 +1391,7 @@
         <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
@@ -1407,7 +1411,7 @@
         <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
@@ -1427,7 +1431,7 @@
         <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F9" t="s">
         <v>15</v>
@@ -1447,7 +1451,7 @@
         <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F10" t="s">
         <v>16</v>
@@ -1492,7 +1496,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B2" t="s">
         <v>66</v>
@@ -1540,10 +1544,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1722,7 +1726,7 @@
         <v>81</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>133</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -1741,7 +1745,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
@@ -1752,7 +1756,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B19" t="s">
         <v>4</v>
@@ -1763,7 +1767,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>130</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
@@ -1774,7 +1778,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B21" t="s">
         <v>4</v>
@@ -1785,23 +1789,34 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>89</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
         <v>86</v>
       </c>
-      <c r="B23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>

--- a/data/allowip.xlsx
+++ b/data/allowip.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="134">
   <si>
     <t>send command</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -507,10 +507,6 @@
   </si>
   <si>
     <t>allowip -a del -t nasshare -d 0 -i 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a mod -t nasshare -d 0 -i 0 -s "ip=10.1.1.1,permission=ro,squash=root"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -918,7 +914,7 @@
         <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
@@ -938,7 +934,7 @@
         <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
@@ -958,7 +954,7 @@
         <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
@@ -978,7 +974,7 @@
         <v>61</v>
       </c>
       <c r="E5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
@@ -998,7 +994,7 @@
         <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
@@ -1018,7 +1014,7 @@
         <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F7" t="s">
         <v>14</v>
@@ -1291,7 +1287,7 @@
         <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
@@ -1311,7 +1307,7 @@
         <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
@@ -1331,7 +1327,7 @@
         <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
@@ -1351,7 +1347,7 @@
         <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
@@ -1371,7 +1367,7 @@
         <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
@@ -1391,7 +1387,7 @@
         <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
@@ -1411,7 +1407,7 @@
         <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
@@ -1431,7 +1427,7 @@
         <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F9" t="s">
         <v>15</v>
@@ -1451,7 +1447,7 @@
         <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F10" t="s">
         <v>16</v>
@@ -1544,10 +1540,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1726,7 +1722,7 @@
         <v>81</v>
       </c>
       <c r="B16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -1745,7 +1741,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
@@ -1767,7 +1763,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
@@ -1778,7 +1774,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B21" t="s">
         <v>4</v>
@@ -1789,34 +1785,23 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B22" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="C22" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>86</v>
-      </c>
-      <c r="B24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>

--- a/data/allowip.xlsx
+++ b/data/allowip.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" tabRatio="884" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" tabRatio="884" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="add_allowip" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="96">
   <si>
     <t>send command</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,20 +60,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>allowip -t snapshot -d 0</t>
-  </si>
-  <si>
-    <t>allowip -t snapshot -d 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -t clone -d 0</t>
-  </si>
-  <si>
-    <t>allowip -t clone -d 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>root_squash</t>
   </si>
   <si>
@@ -86,12 +72,6 @@
     <t>list allowip settings on nasshare 0</t>
   </si>
   <si>
-    <t>list allowip settings of clone 0</t>
-  </si>
-  <si>
-    <t>list allowip settings on snapshot 0</t>
-  </si>
-  <si>
     <t>Index</t>
   </si>
   <si>
@@ -109,21 +89,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>list allowip settings on snapshot 1 by verbose moed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list allowip settings of clone 1 by verbose moed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>allowip -a mod -t nasshare -d 0 -i 0 -s "ip=10.84.2.1, permission=rw, squash=root"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>allowip -a mod -t clone -d 0 -i 0 -s "ip=10.84.2.1, permission=rw, squash=root"</t>
-  </si>
-  <si>
     <t>allowip -a mod -t nasshare -d 0 -i 0 -s "ip=10.84.2.2, permission=ro, squash=all"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -132,42 +101,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>allowip -a mod -t snapshot -d 0 -i 0 -s "ip=10.84.2.2, permission=ro, squash=all"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a mod -t clone -d 0 -i 0 -s "ip=10.84.2.2, permission=ro, squash=all"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a mod -t clone -d 0 -i 0 -s "ip=10.84.2.3, permission=rw, squash=noroot"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>allowip of nasshare type should be modified by "ip=10.84.2.2, permission=ro, squash=all"</t>
   </si>
   <si>
     <t>allowip of nasshare type should be modified by "ip=10.84.2.3, permission=rw, squash=noroot"</t>
   </si>
   <si>
-    <t>allowip of snapshot type should be modified by "ip=10.84.2.1, permission=rw, squash=root"</t>
-  </si>
-  <si>
-    <t>allowip of snapshot type should be modified by "ip=10.84.2.2, permission=ro, squash=all"</t>
-  </si>
-  <si>
-    <t>allowip of snapshot type should be modified by "ip=10.84.2.3, permission=rw, squash=noroot"</t>
-  </si>
-  <si>
-    <t>allowip of clone type should be modified by "ip=10.84.2.1, permission=rw, squash=root"</t>
-  </si>
-  <si>
-    <t>allowip of clone type should be modified by "ip=10.84.2.2, permission=ro, squash=all"</t>
-  </si>
-  <si>
-    <t>allowip of clone type should be modified by "ip=10.84.2.3, permission=rw, squash=noroot"</t>
-  </si>
-  <si>
     <t>allowip of nasshare type should be modified by "ip=10.84.2.1, permission=rw, squash=root"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -181,348 +120,271 @@
     <t>10.84.2.3</t>
   </si>
   <si>
+    <t>allowip should be set by "ip=1.0.0.0, permission=ro, squash=root"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip should be set by "ip=126.255.255.254, permission=rw, squash=all"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip should be set by "ip=191.255.255.254, permission=rw, squash=noroot"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a add -t nasshare -d 0 -s "ip=1.0.0.0, permission=ro, squash=root"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0.0.0</t>
+  </si>
+  <si>
+    <t>126.255.255.254</t>
+  </si>
+  <si>
+    <t>191.255.255.254</t>
+  </si>
+  <si>
+    <t>index 0 of allowip should be deleted on nasshare 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\r\n0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>allowip -t nasshare -d 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>allowip should be set by "ip=1.0.0.0, permission=ro, squash=root"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip should be set by "ip=126.255.255.254, permission=rw, squash=all"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip should be set by "ip=128.0.0.0, permission=ro, squash=root"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip should be set by "ip=191.255.255.254, permission=rw, squash=noroot"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a add -t clone -d 0 -s "ip=192.0.0.0, permission=ro, squash=all"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip should be set by "ip=192.0.0.0, permission=ro, squash=all"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a add -t clone -d 0 -s "ip=223.255.255.254, permission=rw, squash=root"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip should be set by "ip=223.255.255.254, permission=rw, squash=root"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a add -t nasshare -d 0 -s "ip=1.0.0.0, permission=ro, squash=root"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.0.0.0</t>
+    <t>allowip test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a add -t test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a add -t nasshare -d test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a add -t nasshare -d 0 -s test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a add -t nasshare -d 0 -s ""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a add -t nasshare -d 0 -s "ip=255.255.255.255,permission=test,squash=root"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a mod test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a mod -t nasshare -d test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a mod -t nasshare -d 0 -s ""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a del test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a del -t test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a del -t nasshare -d 100 -i 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a del -t nasshare -d 0 -i 100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a add -t nasshare -d 0 -s "ip=test,permission=ro,squash=root"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a add -t nasshare -d 0 -s "ip=255.255.255.255,permission=ro,squash=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAS Share id=[100] is not existed</t>
+  </si>
+  <si>
+    <t>allowip -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a add -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a add -t nasshare -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a add -t nasshare -d 0 -s "test=255.255.255.255,permission=ro,squash=root"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a add -t nasshare -d 0 -s "ip=255.255.255.255,test=ro,squash=root"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a add -t nasshare -d 0 -s "ip=255.255.255.255,permission=ro,test=root"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a mod -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a mod -t nasshare -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a mod -t nasshare -d 0 -s "test=255.255.255.255,permission=ro,squash=root" -i 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a add -t nasshare -d 0 -s "ip=256.255.255.255,permission=ro,squash=root"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a add -t nasshare -d 0 -s "ip=255.256.255.255,permission=ro,squash=root"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a add -t nasshare -d 0 -s "ip=255.255.256.255,permission=ro,squash=root"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a add -t nasshare -d 0 -s "ip=255.255.255.256,permission=ro,squash=root"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a del -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a add -t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">allowip -a add -t nasshare -d </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">allowip -a add -t nasshare -d 0 -s </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a add -t nasshare -d 0 -s "ip=0.0.0.0,permission=ro"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a add -t nasshare -d 0 -s "ip=255.255.255.255,squash=root"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a add -t nasshare -d 0 -s "permission=ro,squash=root"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a mod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a mod -t nasshare -d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a mod -t nasshare -d 0 -s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a del</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a del -t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a del -t nasshare -d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a del -t nasshare -d 0 -i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -v -t nasshare -d 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkpoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkpoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a mod -t nasshare -d 0 -s "ip=256.255.255.255,permission=ro,squash=root" -i 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowip -a del -t nasshare -d 0 -i 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting parameters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>allowip -a add -t nasshare -d 0 -s "ip=126.255.255.254, permission=rw, squash=all"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>126.255.255.254</t>
-  </si>
-  <si>
-    <t>allowip -a add -t snapshot -d 0 -s "ip=128.0.0.0, permission=ro, squash=root"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>128.0.0.0</t>
-  </si>
-  <si>
-    <t>191.255.255.254</t>
-  </si>
-  <si>
-    <t>192.0.0.0</t>
-  </si>
-  <si>
-    <t>223.255.255.254</t>
-  </si>
-  <si>
-    <t>allowip -a del -t snapshot -d 0 -i 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a del -t clone -d 0 -i 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>index 0 of allowip should be deleted on nasshare 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>index 0 of allowip should be deleted on snapshot 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>index 0 of allowip should be deleted on clone 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\r\n0</t>
+    <t>allowip -a add -t nasshare -d 0 -s "ip=191.255.255.254, permission=ro, squash=noroot"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>allowip -t nasshare -d 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -t snapshot -d 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -t clone -d 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a add -t test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a add -t nasshare -d test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a add -t nasshare -d 0 -s test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a add -t nasshare -d 0 -s ""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a add -t nasshare -d 0 -s "ip=255.255.255.255,permission=test,squash=root"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a mod test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a mod -t nasshare -d test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a mod -t nasshare -d 0 -s ""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a del test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a del -t test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a del -t nasshare -d 100 -i 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a del -t nasshare -d 0 -i 100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a add -t nasshare -d 0 -s "ip=test,permission=ro,squash=root"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a add -t nasshare -d 0 -s "ip=255.255.255.255,permission=ro,squash=test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NAS Share id=[100] is not existed</t>
-  </si>
-  <si>
-    <t>allowip -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a add -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a add -t nasshare -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a add -t nasshare -d 0 -s "test=255.255.255.255,permission=ro,squash=root"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a add -t nasshare -d 0 -s "ip=255.255.255.255,test=ro,squash=root"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a add -t nasshare -d 0 -s "ip=255.255.255.255,permission=ro,test=root"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a mod -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a mod -t nasshare -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a mod -t nasshare -d 0 -s "test=255.255.255.255,permission=ro,squash=root" -i 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a add -t nasshare -d 0 -s "ip=256.255.255.255,permission=ro,squash=root"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a add -t nasshare -d 0 -s "ip=255.256.255.255,permission=ro,squash=root"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a add -t nasshare -d 0 -s "ip=255.255.256.255,permission=ro,squash=root"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a add -t nasshare -d 0 -s "ip=255.255.255.256,permission=ro,squash=root"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a del -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -t</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a add -t</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">allowip -a add -t nasshare -d </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">allowip -a add -t nasshare -d 0 -s </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a add -t nasshare -d 0 -s "ip=0.0.0.0,permission=ro"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a add -t nasshare -d 0 -s "ip=255.255.255.255,squash=root"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a add -t nasshare -d 0 -s "permission=ro,squash=root"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a mod</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a mod -t nasshare -d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a mod -t nasshare -d 0 -s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a del</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a del -t</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a del -t nasshare -d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a del -t nasshare -d 0 -i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -v -t nasshare -d 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -v -t snapshot -d 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -v -t clone -d 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>checkpoint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>checkpoint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a add -t snapshot -d 0 -s "ip=191.255.255.254, permission=ro, squash=noroot"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a mod -t snapshot -d 0 -i 0 -s "ip=10.84.2.1, permission=ro, squash=root"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a mod -t snapshot -d 0 -i 0 -s "ip=10.84.2.3, permission=ro, squash=noroot"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a mod -t nasshare -d 0 -s "ip=256.255.255.255,permission=ro,squash=root" -i 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a del -t nasshare -d 0 -i 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ro</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Invalid setting parameters</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowip -a mod -t snapshot -d 2 -i 0 -s "ip=10.84.2.1, permission=ro, squash=root"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -870,16 +732,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="86.875" customWidth="1"/>
-    <col min="2" max="2" width="73.25" customWidth="1"/>
+    <col min="2" max="2" width="83.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3.5" bestFit="1" customWidth="1"/>
@@ -902,122 +764,62 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" t="s">
-        <v>131</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1029,10 +831,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1062,79 +864,39 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
         <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B5" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1146,10 +908,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1176,62 +938,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1243,10 +965,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1275,182 +997,62 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>127</v>
-      </c>
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" t="s">
         <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" t="s">
-        <v>131</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" t="s">
-        <v>130</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" t="s">
-        <v>131</v>
-      </c>
-      <c r="F10" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1462,10 +1064,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1492,44 +1094,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1540,10 +1114,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1560,12 +1134,12 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1576,7 +1150,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -1587,7 +1161,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -1598,7 +1172,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -1609,7 +1183,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -1620,7 +1194,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -1631,7 +1205,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -1642,7 +1216,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -1653,7 +1227,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -1664,7 +1238,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -1675,7 +1249,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -1686,7 +1260,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -1697,7 +1271,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
@@ -1708,7 +1282,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
@@ -1719,10 +1293,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -1730,7 +1304,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
@@ -1741,7 +1315,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>133</v>
+        <v>88</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
@@ -1752,7 +1326,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>128</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
         <v>4</v>
@@ -1763,7 +1337,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
@@ -1774,34 +1348,23 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>86</v>
-      </c>
-      <c r="B23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1816,7 +1379,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="A5" sqref="A5:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1834,12 +1397,12 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -1850,7 +1413,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -1861,7 +1424,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -1872,7 +1435,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -1883,7 +1446,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -1894,7 +1457,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -1905,7 +1468,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -1916,7 +1479,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -1927,7 +1490,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -1938,7 +1501,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
@@ -1957,8 +1520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1976,12 +1539,12 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -1992,7 +1555,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -2003,7 +1566,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -2014,7 +1577,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -2025,7 +1588,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -2036,7 +1599,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -2047,7 +1610,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -2058,7 +1621,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -2069,7 +1632,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -2080,7 +1643,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -2091,7 +1654,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -2102,7 +1665,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -2113,7 +1676,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -2124,7 +1687,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -2135,7 +1698,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
